--- a/complexity.xlsx
+++ b/complexity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19275" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19272" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,34 @@
   </si>
   <si>
     <t xml:space="preserve">O(Candidate*A*PivotsNum) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candidate与alpha有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pivotnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CandA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PairA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the number of pivot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the number of candidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the number of sampling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,14 +305,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,24 +600,24 @@
   <dimension ref="C2:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="13" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
@@ -596,7 +627,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
       <c r="E3" s="16"/>
@@ -617,7 +648,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
@@ -641,7 +672,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="17"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
@@ -657,7 +688,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
@@ -681,7 +712,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="7"/>
       <c r="E7" s="16"/>
@@ -695,7 +726,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -715,7 +746,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:21" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:21" ht="55.2" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,7 +770,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:21" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:21" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
@@ -747,7 +778,9 @@
       <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
@@ -761,7 +794,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -782,7 +815,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>0</v>
       </c>
@@ -816,7 +849,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -836,7 +869,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
@@ -844,7 +877,7 @@
       <c r="E14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="18" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -870,11 +903,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="17"/>
       <c r="D15" s="7"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -890,7 +923,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
@@ -916,7 +949,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:21" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:21" ht="41.4" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
@@ -950,7 +983,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
@@ -971,7 +1004,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -990,10 +1023,16 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1011,10 +1050,16 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="3:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1032,7 +1077,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1051,7 +1096,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="7"/>
       <c r="E23" s="2"/>
@@ -1072,7 +1117,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="7"/>
       <c r="E24" s="2"/>
@@ -1093,7 +1138,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1112,7 +1157,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="7"/>
       <c r="E26" s="2"/>
@@ -1133,7 +1178,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="7"/>
       <c r="E27" s="2"/>
@@ -1154,7 +1199,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="7"/>
       <c r="E28" s="2"/>
@@ -1175,7 +1220,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="7"/>
       <c r="E29" s="2"/>
@@ -1196,15 +1241,15 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="7"/>
     </row>
@@ -1213,12 +1258,6 @@
     <sortCondition ref="B15"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="E2:J3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="G14:G15"/>
@@ -1228,6 +1267,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E2:J3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
